--- a/src/excel_template/cdQC_trend/XY scan difference global Trend.xlsx
+++ b/src/excel_template/cdQC_trend/XY scan difference global Trend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="720" windowWidth="19130" windowHeight="10640"/>
+    <workbookView xWindow="3510" yWindow="720" windowWidth="19130" windowHeight="10640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
@@ -5547,6 +5547,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5748,6 +5749,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -5772,6 +5774,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7665,6 +7668,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7866,6 +7870,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -7890,6 +7895,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7950,6 +7956,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8149,6 +8156,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -8172,6 +8180,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8231,6 +8240,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8432,6 +8442,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -8456,6 +8467,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8516,6 +8528,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8659,6 +8672,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -8737,6 +8751,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8941,6 +8956,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -8964,6 +8980,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9634,6 +9651,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9835,6 +9853,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -9859,6 +9878,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12144,7 +12164,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CK429"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="AL6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -73940,7 +73960,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
